--- a/CORTE 1/ETL/Resguardos Etl.xlsx
+++ b/CORTE 1/ETL/Resguardos Etl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prestamour\Documents\GitHub\victoriaRiosRodriguez\CORTE 1\ETL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D923A9-025E-4626-A7B8-7FA8156EE8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652AA060-441F-49BD-8EB8-80AED9C341B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CFEE1BA-2D31-40FA-9CA9-85EC41061191}"/>
   </bookViews>
@@ -12782,8 +12782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C80C111-A27D-4F7A-9923-3557D8F08D5B}">
   <dimension ref="A1:H955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
